--- a/parabolic/2025/07/07/parabolic.xlsx
+++ b/parabolic/2025/07/07/parabolic.xlsx
@@ -74,6 +74,7 @@
         <color theme="1"/>
         <rFont val="Noto Sans CJK JP"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">日に</t>
     </r>
@@ -93,6 +94,7 @@
         <color theme="1"/>
         <rFont val="Noto Sans CJK JP"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">株</t>
     </r>
@@ -112,6 +114,7 @@
         <color theme="1"/>
         <rFont val="Noto Sans CJK JP"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">円で</t>
     </r>
@@ -131,6 +134,7 @@
         <color theme="1"/>
         <rFont val="Noto Sans CJK JP"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">万</t>
     </r>
@@ -150,6 +154,7 @@
         <color theme="1"/>
         <rFont val="Noto Sans CJK JP"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">株の分売を実施</t>
     </r>
@@ -179,6 +184,7 @@
         <color theme="1"/>
         <rFont val="Noto Sans CJK JP"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">急騰材料見つからず。光通信</t>
     </r>
@@ -198,6 +204,7 @@
         <color theme="1"/>
         <rFont val="Noto Sans CJK JP"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">株</t>
     </r>
@@ -217,6 +224,7 @@
         <color theme="1"/>
         <rFont val="Noto Sans CJK JP"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">は保有割合が増加？</t>
     </r>
@@ -246,6 +254,7 @@
         <color theme="1"/>
         <rFont val="Noto Sans CJK JP"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">無料</t>
     </r>
@@ -265,6 +274,7 @@
         <color theme="1"/>
         <rFont val="Noto Sans CJK JP"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">配布で企業に収益還元</t>
     </r>
@@ -283,6 +293,7 @@
       <color theme="1"/>
       <name val="Noto Sans CJK JP"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -363,16 +374,20 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -571,243 +586,243 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F11" activeCellId="0" sqref="F11"/>
+      <selection pane="topLeft" activeCell="G10" activeCellId="0" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.89453125" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="2" style="0" width="10.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="6.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="2" style="1" width="10.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="47"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2" s="1" t="n">
         <v>596</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2" s="1" t="n">
         <v>380600</v>
       </c>
-      <c r="E2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="E2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="G2" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+    <row r="3" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3" s="1" t="n">
         <v>407</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D3" s="1" t="n">
         <v>1480200</v>
       </c>
-      <c r="E3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" s="2" t="s">
+      <c r="E3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4" s="1" t="n">
         <v>469</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="D4" s="1" t="n">
         <v>172500</v>
       </c>
-      <c r="E4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" s="2" t="s">
+      <c r="E4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="0" t="s">
+      <c r="G4" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="C5" s="1" t="n">
         <v>756</v>
       </c>
-      <c r="D5" s="0" t="n">
+      <c r="D5" s="1" t="n">
         <v>392500</v>
       </c>
-      <c r="E5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" s="2" t="s">
+      <c r="E5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="0" t="s">
+      <c r="G5" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+    <row r="6" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="C6" s="1" t="n">
         <v>761</v>
       </c>
-      <c r="D6" s="0" t="n">
+      <c r="D6" s="1" t="n">
         <v>321500</v>
       </c>
-      <c r="E6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F6" s="2" t="s">
+      <c r="E6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="0" t="s">
+      <c r="G6" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="C7" s="1" t="n">
         <v>840</v>
       </c>
-      <c r="D7" s="0" t="n">
+      <c r="D7" s="1" t="n">
         <v>113300</v>
       </c>
-      <c r="E7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F7" s="2" t="s">
+      <c r="E7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="0" t="s">
+      <c r="G7" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="0" t="n">
+      <c r="C8" s="1" t="n">
         <v>249</v>
       </c>
-      <c r="D8" s="0" t="n">
+      <c r="D8" s="1" t="n">
         <v>494300</v>
       </c>
-      <c r="E8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F8" s="2" t="s">
+      <c r="E8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="0" t="s">
+      <c r="G8" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="0" t="n">
+      <c r="C9" s="1" t="n">
         <v>394</v>
       </c>
-      <c r="D9" s="0" t="n">
+      <c r="D9" s="1" t="n">
         <v>216800</v>
       </c>
-      <c r="E9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F9" s="2" t="s">
+      <c r="E9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="0" t="s">
+      <c r="G9" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
+    <row r="10" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="0" t="n">
+      <c r="C10" s="1" t="n">
         <v>284</v>
       </c>
-      <c r="D10" s="0" t="n">
+      <c r="D10" s="1" t="n">
         <v>4226200</v>
       </c>
-      <c r="E10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F10" s="2" t="s">
+      <c r="E10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G10" s="0" t="s">
+      <c r="G10" s="1" t="s">
         <v>26</v>
       </c>
     </row>

--- a/parabolic/2025/07/07/parabolic.xlsx
+++ b/parabolic/2025/07/07/parabolic.xlsx
@@ -233,7 +233,7 @@
     <t xml:space="preserve">4345</t>
   </si>
   <si>
-    <t xml:space="preserve">上昇材料見つからず。</t>
+    <t xml:space="preserve">上昇材料見つからず。揉み合いか？</t>
   </si>
   <si>
     <t xml:space="preserve">4651</t>
@@ -586,7 +586,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G10" activeCellId="0" sqref="G10"/>
+      <selection pane="topLeft" activeCell="G9" activeCellId="0" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.89453125" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/parabolic/2025/07/07/parabolic.xlsx
+++ b/parabolic/2025/07/07/parabolic.xlsx
@@ -586,7 +586,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G9" activeCellId="0" sqref="G9"/>
+      <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.89453125" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -751,7 +751,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>21</v>
